--- a/team2Scrum.xlsx
+++ b/team2Scrum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hameenamk-my.sharepoint.com/personal/basil20001_student_hamk_fi/Documents/Tietojenkäsittely/2022/Software-development -tools(Deepak)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepositories\ElectionMachine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="612" documentId="8_{06456B0F-8874-44AA-8999-E706CBE4E887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAE6F41C-7379-40DE-AB0D-24FFD9459A8D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F13444C-5E66-4335-BBC8-0110BF375FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11070" yWindow="3615" windowWidth="17280" windowHeight="9135" tabRatio="721" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="721" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guide" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="116">
   <si>
     <t>STATUS</t>
   </si>
@@ -221,9 +221,6 @@
     <t>Sprint 5 Week 17</t>
   </si>
   <si>
-    <t>28.3.2022 - 03.4.2022</t>
-  </si>
-  <si>
     <t>4.4.2022 - 10.4.2022</t>
   </si>
   <si>
@@ -269,9 +266,6 @@
     <t>Create a login page</t>
   </si>
   <si>
-    <t>Create a database for admins with encrypted password features in the DB</t>
-  </si>
-  <si>
     <t>If the username or password are wrong, inform the user with an error message</t>
   </si>
   <si>
@@ -336,13 +330,67 @@
   </si>
   <si>
     <t>Create the front page where users can select whether they want to register as voters or candidates with a link for admins login page.</t>
+  </si>
+  <si>
+    <t>Sprint Backlog : Sprint 1 28.3.2022 - 03.4.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date: 28.3.2022 </t>
+  </si>
+  <si>
+    <t>User Story: As a citezens, I am able to register as voter.</t>
+  </si>
+  <si>
+    <t>Create HTML front page, creat links to voters and nominees registiration pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Election machine DB with the necessarry tables. </t>
+  </si>
+  <si>
+    <t>Create GitHub repository</t>
+  </si>
+  <si>
+    <t>Make sure our environment works properly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make sure we all have the same MySQL version </t>
+  </si>
+  <si>
+    <t>Basel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Story: As a nominee, I am able to register and become a registerd candidate. </t>
+  </si>
+  <si>
+    <t>Create HTML voters registeration page.</t>
+  </si>
+  <si>
+    <t>Create HTML nomniees registeration page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>User Story: As an admin, I am able to log in.</t>
+  </si>
+  <si>
+    <t>Create a table for admins in the DB with encrypted password features in the DB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The login page esablishes a connection with the db and checks if the credentials are available in the db </t>
+  </si>
+  <si>
+    <t>Create a table for admins in the DB with encrypted password features in the DB (salt)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -479,6 +527,35 @@
       <b/>
       <sz val="24"/>
       <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Century Gothic"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Century Gothic"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -705,7 +782,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -767,6 +844,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -783,10 +864,17 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3141,13 +3229,13 @@
       <c r="H4" s="38"/>
     </row>
     <row r="6" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
       <c r="H6" s="17"/>
     </row>
     <row r="7" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
@@ -3222,12 +3310,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
     </row>
     <row r="2" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -3248,7 +3336,7 @@
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="33">
         <v>6</v>
@@ -3265,7 +3353,7 @@
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="33">
         <v>6</v>
@@ -3282,7 +3370,7 @@
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="33">
         <v>6</v>
@@ -3299,7 +3387,7 @@
     </row>
     <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="33">
         <v>4</v>
@@ -3316,7 +3404,7 @@
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="33">
         <v>4</v>
@@ -3333,7 +3421,7 @@
     </row>
     <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="33">
         <v>6</v>
@@ -3350,7 +3438,7 @@
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="33">
         <v>2</v>
@@ -3367,7 +3455,7 @@
     </row>
     <row r="10" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="33">
         <v>4</v>
@@ -3384,7 +3472,7 @@
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="33">
         <v>2</v>
@@ -3401,7 +3489,7 @@
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" s="33">
         <v>8</v>
@@ -3418,7 +3506,7 @@
     </row>
     <row r="13" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" s="33">
         <v>2</v>
@@ -3429,7 +3517,7 @@
     </row>
     <row r="14" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" s="33">
         <v>2</v>
@@ -3498,8 +3586,8 @@
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
     </row>
     <row r="24" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
@@ -3746,7 +3834,7 @@
   <dimension ref="C1:D55"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="A9:XFD9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3756,14 +3844,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C1" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="44"/>
+      <c r="C1" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="48"/>
     </row>
     <row r="2" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
     </row>
     <row r="3" spans="3:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="C3" s="23" t="s">
@@ -3774,284 +3862,284 @@
       </c>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="48"/>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="42"/>
+      <c r="D4" s="42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="42"/>
+      <c r="D7" s="42" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="48"/>
-      <c r="D5" s="48" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="48" t="s">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="43"/>
+      <c r="D10" s="43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="43"/>
+      <c r="D12" s="43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="41"/>
+      <c r="D15" s="41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="48" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="48"/>
-      <c r="D7" s="48" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-    </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-    </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="49"/>
-      <c r="D10" s="49" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="49" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="49"/>
-      <c r="D12" s="49" t="s">
+      <c r="D16" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="42"/>
+      <c r="D19" s="42" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="42" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-    </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-    </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="47"/>
-      <c r="D15" s="47" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="47" t="s">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="43"/>
+      <c r="D23" s="43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="47" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="48"/>
-      <c r="D19" s="48" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="48" t="s">
+      <c r="D24" s="43"/>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="41"/>
+      <c r="D27" s="41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="41"/>
+      <c r="D29" s="41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="42"/>
+      <c r="D32" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="48" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="49"/>
-      <c r="D23" s="49" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="49"/>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C27" s="47"/>
-      <c r="D27" s="47" t="s">
+      <c r="D33" s="42" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C28" s="47" t="s">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="43"/>
+      <c r="D36" s="43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="41"/>
+      <c r="D40" s="41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C41" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="41"/>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C44" s="42"/>
+      <c r="D44" s="42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C45" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="47" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C29" s="47"/>
-      <c r="D29" s="47" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-    </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C32" s="48"/>
-      <c r="D32" s="48" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="48" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C36" s="49"/>
-      <c r="D36" s="49" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C37" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="49" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-    </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C40" s="47"/>
-      <c r="D40" s="47" t="s">
+      <c r="D45" s="42" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C41" s="47" t="s">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C48" s="43"/>
+      <c r="D48" s="43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C49" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="47"/>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-    </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
-    </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C44" s="48"/>
-      <c r="D44" s="48" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C45" s="48" t="s">
+      <c r="D49" s="43"/>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="41"/>
+      <c r="D52" s="41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C53" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="D45" s="48" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-    </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
-    </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C48" s="49"/>
-      <c r="D48" s="49" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C49" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="D49" s="49"/>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C52" s="47"/>
-      <c r="D52" s="47" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C53" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="D53" s="47"/>
+      <c r="D53" s="41"/>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4068,8 +4156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABEC472C-4832-45AF-A950-04969A0E3C90}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D4"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4105,10 +4193,14 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s">
         <v>8</v>
@@ -4116,7 +4208,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -4140,7 +4232,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -4229,42 +4321,43 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE6088DA-74CF-4F3C-ACDE-C67EABB84574}">
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.875" customWidth="1"/>
+    <col min="1" max="1" width="88.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
+      <c r="A1" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
     </row>
     <row r="2" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -4305,131 +4398,97 @@
       <c r="R2" s="14"/>
       <c r="S2" s="14"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="13">
-        <v>2</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="13">
-        <v>2</v>
-      </c>
-      <c r="F4" s="13">
-        <v>3</v>
-      </c>
-      <c r="G4" s="13">
+    <row r="3" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+    </row>
+    <row r="4" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+    </row>
+    <row r="5" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="11">
         <v>4</v>
       </c>
-      <c r="H4" s="13">
-        <v>4</v>
-      </c>
-      <c r="I4" s="13">
-        <v>4</v>
-      </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="13">
-        <v>2</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13">
-        <v>2</v>
-      </c>
-      <c r="F5" s="13">
-        <v>1</v>
-      </c>
-      <c r="G5" s="13">
-        <v>7</v>
-      </c>
-      <c r="H5" s="13">
-        <v>3</v>
-      </c>
-      <c r="I5" s="13">
-        <v>1</v>
-      </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="13">
-        <v>4</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13">
-        <v>2</v>
-      </c>
-      <c r="F6" s="13">
-        <v>2</v>
-      </c>
-      <c r="G6" s="13">
-        <v>6</v>
-      </c>
-      <c r="H6" s="13">
-        <v>2</v>
-      </c>
-      <c r="I6" s="13">
-        <v>4</v>
-      </c>
+      <c r="C6" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
@@ -4443,30 +4502,16 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="13">
-        <v>2</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>35</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="13">
-        <v>2</v>
-      </c>
-      <c r="F7" s="13">
-        <v>4</v>
-      </c>
-      <c r="G7" s="13">
-        <v>5</v>
-      </c>
-      <c r="H7" s="13">
-        <v>5</v>
-      </c>
-      <c r="I7" s="13">
-        <v>6</v>
-      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
@@ -4479,17 +4524,17 @@
       <c r="S7" s="14"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
@@ -4501,9 +4546,9 @@
       <c r="R8" s="14"/>
       <c r="S8" s="14"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -4524,10 +4569,8 @@
       <c r="R9" s="14"/>
       <c r="S9" s="14"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>21</v>
-      </c>
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -4547,18 +4590,22 @@
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
@@ -4570,9 +4617,9 @@
       <c r="R11" s="14"/>
       <c r="S11" s="14"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -4593,18 +4640,16 @@
       <c r="R12" s="14"/>
       <c r="S12" s="14"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
+    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
@@ -4616,9 +4661,9 @@
       <c r="R13" s="14"/>
       <c r="S13" s="14"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -4639,9 +4684,9 @@
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -4662,18 +4707,22 @@
       <c r="R15" s="14"/>
       <c r="S15" s="14"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
+    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="11">
+        <v>6</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
@@ -4685,9 +4734,9 @@
       <c r="R16" s="14"/>
       <c r="S16" s="14"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -4708,18 +4757,18 @@
       <c r="R17" s="14"/>
       <c r="S17" s="14"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
+    <row r="18" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
@@ -4731,9 +4780,9 @@
       <c r="R18" s="14"/>
       <c r="S18" s="14"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -4754,9 +4803,9 @@
       <c r="R19" s="14"/>
       <c r="S19" s="14"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -4777,18 +4826,18 @@
       <c r="R20" s="14"/>
       <c r="S20" s="14"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
+    <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
@@ -4800,7 +4849,7 @@
       <c r="R21" s="14"/>
       <c r="S21" s="14"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>20</v>
       </c>
@@ -4823,18 +4872,18 @@
       <c r="R22" s="14"/>
       <c r="S22" s="14"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
+    <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
@@ -4846,7 +4895,7 @@
       <c r="R23" s="14"/>
       <c r="S23" s="14"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>20</v>
       </c>
@@ -4869,9 +4918,9 @@
       <c r="R24" s="14"/>
       <c r="S24" s="14"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -4892,18 +4941,18 @@
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
+    <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
@@ -4915,9 +4964,9 @@
       <c r="R26" s="14"/>
       <c r="S26" s="14"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -4938,33 +4987,18 @@
       <c r="R27" s="14"/>
       <c r="S27" s="14"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9">
-        <f>SUM(E4:E27)</f>
-        <v>8</v>
-      </c>
-      <c r="F28" s="9">
-        <f>SUM(F3:F27)</f>
-        <v>10</v>
-      </c>
-      <c r="G28" s="9">
-        <f>SUM(G3:G27)</f>
-        <v>22</v>
-      </c>
-      <c r="H28" s="9">
-        <f>SUM(H3:H27)</f>
-        <v>14</v>
-      </c>
-      <c r="I28" s="9">
-        <f>SUM(I3:I27)</f>
-        <v>15</v>
-      </c>
+    <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
@@ -4976,11 +5010,96 @@
       <c r="R28" s="14"/>
       <c r="S28" s="14"/>
     </row>
+    <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+    </row>
+    <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+    </row>
+    <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9">
+        <f>SUM(E7:E30)</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="9">
+        <f>SUM(F6:F30)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="9">
+        <f>SUM(G6:G30)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="9">
+        <f>SUM(H6:H30)</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="9">
+        <f>SUM(I6:I30)</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5001,27 +5120,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
     </row>
     <row r="2" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">

--- a/team2Scrum.xlsx
+++ b/team2Scrum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepositories\ElectionMachine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F13444C-5E66-4335-BBC8-0110BF375FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D05418-55E5-4D84-A1D1-30F7030FEB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="721" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23844" yWindow="624" windowWidth="21600" windowHeight="11508" tabRatio="721" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guide" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="119">
   <si>
     <t>STATUS</t>
   </si>
@@ -384,6 +384,15 @@
   </si>
   <si>
     <t>Create a table for admins in the DB with encrypted password features in the DB (salt)</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Connect voter registration form to database table</t>
   </si>
 </sst>
 </file>
@@ -848,6 +857,17 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -864,17 +884,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1720,8 +1729,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10419228" y="437028"/>
-          <a:ext cx="6042213" cy="2474262"/>
+          <a:off x="10417323" y="439605"/>
+          <a:ext cx="6090510" cy="2504967"/>
           <a:chOff x="7360022" y="3922058"/>
           <a:chExt cx="6042213" cy="2586321"/>
         </a:xfrm>
@@ -3229,13 +3238,13 @@
       <c r="H4" s="38"/>
     </row>
     <row r="6" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
       <c r="H6" s="17"/>
     </row>
     <row r="7" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
@@ -3310,12 +3319,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -3586,8 +3595,8 @@
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
     </row>
     <row r="24" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
@@ -3844,14 +3853,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="48"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
     </row>
     <row r="3" spans="3:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="C3" s="23" t="s">
@@ -4323,41 +4332,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE6088DA-74CF-4F3C-ACDE-C67EABB84574}">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="88.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="91.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
     </row>
     <row r="2" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -4398,80 +4407,80 @@
       <c r="R2" s="14"/>
       <c r="S2" s="14"/>
     </row>
-    <row r="3" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+    <row r="3" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-    </row>
-    <row r="4" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+    </row>
+    <row r="4" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-    </row>
-    <row r="5" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+    </row>
+    <row r="5" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53" t="s">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -4480,7 +4489,7 @@
       <c r="B6" s="11">
         <v>4</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="46" t="s">
         <v>106</v>
       </c>
       <c r="D6" s="12"/>
@@ -4504,7 +4513,9 @@
       <c r="A7" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="13" t="s">
+        <v>117</v>
+      </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -4527,7 +4538,9 @@
       <c r="A8" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="13" t="s">
+        <v>117</v>
+      </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -4550,7 +4563,9 @@
       <c r="A9" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>116</v>
+      </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -4570,8 +4585,12 @@
       <c r="S9" s="14"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>117</v>
+      </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -4597,7 +4616,7 @@
       <c r="B11" s="11">
         <v>4</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="46" t="s">
         <v>106</v>
       </c>
       <c r="D11" s="12"/>
@@ -4714,7 +4733,7 @@
       <c r="B16" s="11">
         <v>6</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="46" t="s">
         <v>106</v>
       </c>
       <c r="D16" s="12"/>
@@ -5120,27 +5139,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
     </row>
     <row r="2" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">

--- a/team2Scrum.xlsx
+++ b/team2Scrum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepositories\ElectionMachine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hameenamk-my.sharepoint.com/personal/basil20001_student_hamk_fi/Documents/Tietojenkäsittely/2022/Software-development -tools(Deepak)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D05418-55E5-4D84-A1D1-30F7030FEB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{D1D05418-55E5-4D84-A1D1-30F7030FEB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{283568D7-B8D7-40D7-AE6B-612FA8450596}"/>
   <bookViews>
-    <workbookView xWindow="23844" yWindow="624" windowWidth="21600" windowHeight="11508" tabRatio="721" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="721" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guide" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="120">
   <si>
     <t>STATUS</t>
   </si>
@@ -393,6 +393,9 @@
   </si>
   <si>
     <t>Connect voter registration form to database table</t>
+  </si>
+  <si>
+    <t>Connect candidate registration form to database table</t>
   </si>
 </sst>
 </file>
@@ -1729,8 +1732,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10417323" y="439605"/>
-          <a:ext cx="6090510" cy="2504967"/>
+          <a:off x="10410263" y="441510"/>
+          <a:ext cx="5968254" cy="2411510"/>
           <a:chOff x="7360022" y="3922058"/>
           <a:chExt cx="6042213" cy="2586321"/>
         </a:xfrm>
@@ -3187,7 +3190,7 @@
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3202,9 +3205,9 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
       <c r="D2" s="38" t="s">
@@ -3215,7 +3218,7 @@
       <c r="G2" s="37"/>
       <c r="H2" s="37"/>
     </row>
-    <row r="3" spans="2:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
       <c r="B3" s="38" t="s">
         <v>37</v>
       </c>
@@ -3226,7 +3229,7 @@
       <c r="G3" s="39"/>
       <c r="H3" s="39"/>
     </row>
-    <row r="4" spans="2:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
       <c r="B4" s="38" t="s">
         <v>43</v>
       </c>
@@ -3237,7 +3240,7 @@
       <c r="G4" s="38"/>
       <c r="H4" s="38"/>
     </row>
-    <row r="6" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C6" s="50" t="s">
         <v>44</v>
       </c>
@@ -3247,7 +3250,7 @@
       <c r="G6" s="50"/>
       <c r="H6" s="17"/>
     </row>
-    <row r="7" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C7" s="36"/>
       <c r="D7" s="40" t="s">
         <v>45</v>
@@ -3256,7 +3259,7 @@
       <c r="F7" s="40"/>
       <c r="G7" s="36"/>
     </row>
-    <row r="8" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C8" s="36"/>
       <c r="D8" s="40" t="s">
         <v>48</v>
@@ -3265,7 +3268,7 @@
       <c r="F8" s="40"/>
       <c r="G8" s="36"/>
     </row>
-    <row r="9" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C9" s="36"/>
       <c r="D9" s="40" t="s">
         <v>49</v>
@@ -3274,7 +3277,7 @@
       <c r="F9" s="40"/>
       <c r="G9" s="36"/>
     </row>
-    <row r="10" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C10" s="36"/>
       <c r="D10" s="40" t="s">
         <v>46</v>
@@ -3283,7 +3286,7 @@
       <c r="F10" s="40"/>
       <c r="G10" s="36"/>
     </row>
-    <row r="11" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C11" s="36"/>
       <c r="D11" s="40" t="s">
         <v>47</v>
@@ -3309,16 +3312,16 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="95.875" customWidth="1"/>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="20.25" customWidth="1"/>
-    <col min="4" max="4" width="22.75" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="95.8984375" customWidth="1"/>
+    <col min="2" max="2" width="21.69921875" customWidth="1"/>
+    <col min="3" max="3" width="20.19921875" customWidth="1"/>
+    <col min="4" max="4" width="22.69921875" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A1" s="52" t="s">
         <v>10</v>
       </c>
@@ -3326,7 +3329,7 @@
       <c r="C1" s="52"/>
       <c r="D1" s="52"/>
     </row>
-    <row r="2" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -3343,7 +3346,7 @@
       <c r="I2" s="19"/>
       <c r="J2" s="19"/>
     </row>
-    <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>64</v>
       </c>
@@ -3360,7 +3363,7 @@
       <c r="I3" s="19"/>
       <c r="J3" s="19"/>
     </row>
-    <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>63</v>
       </c>
@@ -3377,7 +3380,7 @@
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
     </row>
-    <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>65</v>
       </c>
@@ -3394,7 +3397,7 @@
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
     </row>
-    <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>67</v>
       </c>
@@ -3411,7 +3414,7 @@
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
     </row>
-    <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>66</v>
       </c>
@@ -3428,7 +3431,7 @@
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
     </row>
-    <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>72</v>
       </c>
@@ -3445,7 +3448,7 @@
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
     </row>
-    <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>68</v>
       </c>
@@ -3462,7 +3465,7 @@
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
     </row>
-    <row r="10" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>69</v>
       </c>
@@ -3479,7 +3482,7 @@
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
     </row>
-    <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>70</v>
       </c>
@@ -3496,7 +3499,7 @@
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
     </row>
-    <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>73</v>
       </c>
@@ -3513,7 +3516,7 @@
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
     </row>
-    <row r="13" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>71</v>
       </c>
@@ -3524,7 +3527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>74</v>
       </c>
@@ -3535,17 +3538,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="33"/>
       <c r="C15" s="35"/>
     </row>
-    <row r="16" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="33"/>
       <c r="C16" s="35"/>
     </row>
-    <row r="17" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="35"/>
@@ -3553,13 +3556,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="35"/>
       <c r="I18" s="18"/>
     </row>
-    <row r="19" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="F19" s="17"/>
@@ -3568,7 +3571,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="F20" s="17"/>
@@ -3577,7 +3580,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="F21" s="17"/>
@@ -3586,19 +3589,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="F23" s="51"/>
       <c r="G23" s="51"/>
     </row>
-    <row r="24" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="G24" s="19"/>
@@ -3609,7 +3612,7 @@
       <c r="L24" s="21"/>
       <c r="M24" s="19"/>
     </row>
-    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="G25" s="19"/>
@@ -3620,7 +3623,7 @@
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
     </row>
-    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="G26" s="19"/>
@@ -3631,7 +3634,7 @@
       <c r="L26" s="20"/>
       <c r="M26" s="19"/>
     </row>
-    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="G27" s="19"/>
@@ -3642,7 +3645,7 @@
       <c r="L27" s="20"/>
       <c r="M27" s="19"/>
     </row>
-    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="G28" s="19"/>
@@ -3653,7 +3656,7 @@
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
     </row>
-    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="G29" s="19"/>
@@ -3664,151 +3667,151 @@
       <c r="L29" s="19"/>
       <c r="M29" s="19"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="B66" s="4"/>
     </row>
@@ -3846,23 +3849,23 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="86.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="110.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="110.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C1" s="53" t="s">
         <v>62</v>
       </c>
       <c r="D1" s="53"/>
     </row>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C2" s="53"/>
       <c r="D2" s="53"/>
     </row>
-    <row r="3" spans="3:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:4" ht="25.8" x14ac:dyDescent="0.3">
       <c r="C3" s="23" t="s">
         <v>50</v>
       </c>
@@ -3870,19 +3873,19 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C4" s="42"/>
       <c r="D4" s="42" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C5" s="42"/>
       <c r="D5" s="42" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C6" s="42" t="s">
         <v>64</v>
       </c>
@@ -3890,27 +3893,27 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C7" s="42"/>
       <c r="D7" s="42" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C8" s="42"/>
       <c r="D8" s="42"/>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C9" s="44"/>
       <c r="D9" s="44"/>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C10" s="43"/>
       <c r="D10" s="43" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C11" s="43" t="s">
         <v>63</v>
       </c>
@@ -3918,27 +3921,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C12" s="43"/>
       <c r="D12" s="43" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C13" s="43"/>
       <c r="D13" s="43"/>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C14" s="44"/>
       <c r="D14" s="44"/>
     </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C15" s="41"/>
       <c r="D15" s="41" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C16" s="41" t="s">
         <v>65</v>
       </c>
@@ -3946,21 +3949,21 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C17" s="41"/>
       <c r="D17" s="41"/>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C18" s="44"/>
       <c r="D18" s="44"/>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C19" s="42"/>
       <c r="D19" s="42" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" s="42" t="s">
         <v>67</v>
       </c>
@@ -3968,41 +3971,41 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C21" s="42"/>
       <c r="D21" s="42"/>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C22" s="44"/>
       <c r="D22" s="44"/>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C23" s="43"/>
       <c r="D23" s="43" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C24" s="43" t="s">
         <v>66</v>
       </c>
       <c r="D24" s="43"/>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C25" s="43"/>
       <c r="D25" s="43"/>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C26" s="44"/>
       <c r="D26" s="44"/>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C27" s="41"/>
       <c r="D27" s="41" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C28" s="41" t="s">
         <v>72</v>
       </c>
@@ -4010,27 +4013,27 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C29" s="41"/>
       <c r="D29" s="41" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C30" s="41"/>
       <c r="D30" s="41"/>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C31" s="44"/>
       <c r="D31" s="44"/>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C32" s="42"/>
       <c r="D32" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C33" s="42" t="s">
         <v>68</v>
       </c>
@@ -4038,21 +4041,21 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C34" s="42"/>
       <c r="D34" s="42"/>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C35" s="44"/>
       <c r="D35" s="44"/>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C36" s="43"/>
       <c r="D36" s="43" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C37" s="43" t="s">
         <v>69</v>
       </c>
@@ -4060,41 +4063,41 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C38" s="43"/>
       <c r="D38" s="43"/>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C39" s="44"/>
       <c r="D39" s="44"/>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C40" s="41"/>
       <c r="D40" s="41" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C41" s="41" t="s">
         <v>70</v>
       </c>
       <c r="D41" s="41"/>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C42" s="41"/>
       <c r="D42" s="41"/>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C43" s="44"/>
       <c r="D43" s="44"/>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C44" s="42"/>
       <c r="D44" s="42" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C45" s="42" t="s">
         <v>73</v>
       </c>
@@ -4102,51 +4105,51 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C46" s="42"/>
       <c r="D46" s="42"/>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C47" s="44"/>
       <c r="D47" s="44"/>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C48" s="43"/>
       <c r="D48" s="43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C49" s="43" t="s">
         <v>71</v>
       </c>
       <c r="D49" s="43"/>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50" s="43"/>
       <c r="D50" s="43"/>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C51" s="44"/>
       <c r="D51" s="44"/>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C52" s="41"/>
       <c r="D52" s="41" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C53" s="41" t="s">
         <v>74</v>
       </c>
       <c r="D53" s="41"/>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C54" s="41"/>
       <c r="D54" s="41"/>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C55" s="44"/>
       <c r="D55" s="44"/>
     </row>
@@ -4169,16 +4172,16 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.125" customWidth="1"/>
-    <col min="2" max="2" width="29.125" customWidth="1"/>
+    <col min="1" max="1" width="24.09765625" customWidth="1"/>
+    <col min="2" max="2" width="29.09765625" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="26.75" customWidth="1"/>
-    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="4" max="4" width="26.69921875" customWidth="1"/>
+    <col min="5" max="5" width="24.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
@@ -4186,7 +4189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>53</v>
       </c>
@@ -4200,7 +4203,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>5</v>
       </c>
@@ -4215,7 +4218,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>99</v>
       </c>
@@ -4223,7 +4226,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>52</v>
       </c>
@@ -4231,7 +4234,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="27"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>54</v>
       </c>
@@ -4239,7 +4242,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>61</v>
       </c>
@@ -4247,7 +4250,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>58</v>
       </c>
@@ -4255,7 +4258,7 @@
       <c r="C8" s="8"/>
       <c r="D8" s="27"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>5</v>
       </c>
@@ -4263,7 +4266,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>6</v>
       </c>
@@ -4271,7 +4274,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
         <v>59</v>
       </c>
@@ -4279,7 +4282,7 @@
       <c r="C11" s="8"/>
       <c r="D11" s="27"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>5</v>
       </c>
@@ -4287,7 +4290,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>6</v>
       </c>
@@ -4295,7 +4298,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
         <v>60</v>
       </c>
@@ -4303,7 +4306,7 @@
       <c r="C14" s="8"/>
       <c r="D14" s="27"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>5</v>
       </c>
@@ -4311,7 +4314,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="31" t="s">
         <v>6</v>
       </c>
@@ -4332,20 +4335,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE6088DA-74CF-4F3C-ACDE-C67EABB84574}">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="91.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="91.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" customWidth="1"/>
+    <col min="4" max="4" width="10.8984375" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="54" t="s">
         <v>98</v>
       </c>
@@ -4368,7 +4371,7 @@
       <c r="R1" s="55"/>
       <c r="S1" s="55"/>
     </row>
-    <row r="2" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
@@ -4407,7 +4410,7 @@
       <c r="R2" s="14"/>
       <c r="S2" s="14"/>
     </row>
-    <row r="3" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
         <v>103</v>
       </c>
@@ -4432,7 +4435,7 @@
       <c r="R3" s="48"/>
       <c r="S3" s="48"/>
     </row>
-    <row r="4" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
         <v>105</v>
       </c>
@@ -4457,7 +4460,7 @@
       <c r="R4" s="48"/>
       <c r="S4" s="48"/>
     </row>
-    <row r="5" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
         <v>104</v>
       </c>
@@ -4482,7 +4485,7 @@
       <c r="R5" s="48"/>
       <c r="S5" s="48"/>
     </row>
-    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>100</v>
       </c>
@@ -4509,7 +4512,7 @@
       <c r="R6" s="14"/>
       <c r="S6" s="14"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>101</v>
       </c>
@@ -4534,7 +4537,7 @@
       <c r="R7" s="14"/>
       <c r="S7" s="14"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>108</v>
       </c>
@@ -4559,7 +4562,7 @@
       <c r="R8" s="14"/>
       <c r="S8" s="14"/>
     </row>
-    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>102</v>
       </c>
@@ -4584,7 +4587,7 @@
       <c r="R9" s="14"/>
       <c r="S9" s="14"/>
     </row>
-    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>118</v>
       </c>
@@ -4609,7 +4612,7 @@
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
     </row>
-    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>107</v>
       </c>
@@ -4636,9 +4639,844 @@
       <c r="R11" s="14"/>
       <c r="S11" s="14"/>
     </row>
-    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>109</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="11">
+        <v>6</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+    </row>
+    <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+    </row>
+    <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+    </row>
+    <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+    </row>
+    <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+    </row>
+    <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+    </row>
+    <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+    </row>
+    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+    </row>
+    <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+    </row>
+    <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+    </row>
+    <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+    </row>
+    <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9">
+        <f>SUM(E7:E30)</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="9">
+        <f>SUM(F6:F30)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="9">
+        <f>SUM(G6:G30)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="9">
+        <f>SUM(H6:H30)</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="9">
+        <f>SUM(I6:I30)</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B586DF3-05CE-45CD-BBBF-F44EAB136942}">
+  <dimension ref="A1:S28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.8984375" customWidth="1"/>
+    <col min="2" max="2" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" customWidth="1"/>
+    <col min="4" max="4" width="10.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+    </row>
+    <row r="2" spans="1:19" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="13">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="13">
+        <v>2</v>
+      </c>
+      <c r="F4" s="13">
+        <v>3</v>
+      </c>
+      <c r="G4" s="13">
+        <v>4</v>
+      </c>
+      <c r="H4" s="13">
+        <v>4</v>
+      </c>
+      <c r="I4" s="13">
+        <v>4</v>
+      </c>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="13">
+        <v>2</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13">
+        <v>2</v>
+      </c>
+      <c r="F5" s="13">
+        <v>1</v>
+      </c>
+      <c r="G5" s="13">
+        <v>7</v>
+      </c>
+      <c r="H5" s="13">
+        <v>3</v>
+      </c>
+      <c r="I5" s="13">
+        <v>1</v>
+      </c>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="13">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13">
+        <v>2</v>
+      </c>
+      <c r="F6" s="13">
+        <v>2</v>
+      </c>
+      <c r="G6" s="13">
+        <v>6</v>
+      </c>
+      <c r="H6" s="13">
+        <v>2</v>
+      </c>
+      <c r="I6" s="13">
+        <v>4</v>
+      </c>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="13">
+        <v>2</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13">
+        <v>2</v>
+      </c>
+      <c r="F7" s="13">
+        <v>4</v>
+      </c>
+      <c r="G7" s="13">
+        <v>5</v>
+      </c>
+      <c r="H7" s="13">
+        <v>5</v>
+      </c>
+      <c r="I7" s="13">
+        <v>6</v>
+      </c>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -4659,16 +5497,18 @@
       <c r="R12" s="14"/>
       <c r="S12" s="14"/>
     </row>
-    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
@@ -4680,9 +5520,9 @@
       <c r="R13" s="14"/>
       <c r="S13" s="14"/>
     </row>
-    <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -4703,9 +5543,9 @@
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
     </row>
-    <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -4726,22 +5566,18 @@
       <c r="R15" s="14"/>
       <c r="S15" s="14"/>
     </row>
-    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B16" s="11">
-        <v>6</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
@@ -4753,9 +5589,9 @@
       <c r="R16" s="14"/>
       <c r="S16" s="14"/>
     </row>
-    <row r="17" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -4776,18 +5612,18 @@
       <c r="R17" s="14"/>
       <c r="S17" s="14"/>
     </row>
-    <row r="18" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
@@ -4799,9 +5635,9 @@
       <c r="R18" s="14"/>
       <c r="S18" s="14"/>
     </row>
-    <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -4822,9 +5658,9 @@
       <c r="R19" s="14"/>
       <c r="S19" s="14"/>
     </row>
-    <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -4845,18 +5681,18 @@
       <c r="R20" s="14"/>
       <c r="S20" s="14"/>
     </row>
-    <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
@@ -4868,7 +5704,7 @@
       <c r="R21" s="14"/>
       <c r="S21" s="14"/>
     </row>
-    <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>20</v>
       </c>
@@ -4891,18 +5727,18 @@
       <c r="R22" s="14"/>
       <c r="S22" s="14"/>
     </row>
-    <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
@@ -4914,7 +5750,7 @@
       <c r="R23" s="14"/>
       <c r="S23" s="14"/>
     </row>
-    <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>20</v>
       </c>
@@ -4937,9 +5773,9 @@
       <c r="R24" s="14"/>
       <c r="S24" s="14"/>
     </row>
-    <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -4960,18 +5796,18 @@
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
     </row>
-    <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
@@ -4983,9 +5819,9 @@
       <c r="R26" s="14"/>
       <c r="S26" s="14"/>
     </row>
-    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -5006,18 +5842,33 @@
       <c r="R27" s="14"/>
       <c r="S27" s="14"/>
     </row>
-    <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9">
+        <f>SUM(E4:E27)</f>
+        <v>8</v>
+      </c>
+      <c r="F28" s="9">
+        <f>SUM(F3:F27)</f>
+        <v>10</v>
+      </c>
+      <c r="G28" s="9">
+        <f>SUM(G3:G27)</f>
+        <v>22</v>
+      </c>
+      <c r="H28" s="9">
+        <f>SUM(H3:H27)</f>
+        <v>14</v>
+      </c>
+      <c r="I28" s="9">
+        <f>SUM(I3:I27)</f>
+        <v>15</v>
+      </c>
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
@@ -5029,848 +5880,6 @@
       <c r="R28" s="14"/>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-    </row>
-    <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-    </row>
-    <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9">
-        <f>SUM(E7:E30)</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="9">
-        <f>SUM(F6:F30)</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="9">
-        <f>SUM(G6:G30)</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="9">
-        <f>SUM(H6:H30)</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="9">
-        <f>SUM(I6:I30)</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:S1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B586DF3-05CE-45CD-BBBF-F44EAB136942}">
-  <dimension ref="A1:S28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="38.875" customWidth="1"/>
-    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="10.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-    </row>
-    <row r="2" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="13">
-        <v>2</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="13">
-        <v>2</v>
-      </c>
-      <c r="F4" s="13">
-        <v>3</v>
-      </c>
-      <c r="G4" s="13">
-        <v>4</v>
-      </c>
-      <c r="H4" s="13">
-        <v>4</v>
-      </c>
-      <c r="I4" s="13">
-        <v>4</v>
-      </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="13">
-        <v>2</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13">
-        <v>2</v>
-      </c>
-      <c r="F5" s="13">
-        <v>1</v>
-      </c>
-      <c r="G5" s="13">
-        <v>7</v>
-      </c>
-      <c r="H5" s="13">
-        <v>3</v>
-      </c>
-      <c r="I5" s="13">
-        <v>1</v>
-      </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="13">
-        <v>4</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13">
-        <v>2</v>
-      </c>
-      <c r="F6" s="13">
-        <v>2</v>
-      </c>
-      <c r="G6" s="13">
-        <v>6</v>
-      </c>
-      <c r="H6" s="13">
-        <v>2</v>
-      </c>
-      <c r="I6" s="13">
-        <v>4</v>
-      </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="13">
-        <v>2</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13">
-        <v>2</v>
-      </c>
-      <c r="F7" s="13">
-        <v>4</v>
-      </c>
-      <c r="G7" s="13">
-        <v>5</v>
-      </c>
-      <c r="H7" s="13">
-        <v>5</v>
-      </c>
-      <c r="I7" s="13">
-        <v>6</v>
-      </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9">
-        <f>SUM(E4:E27)</f>
-        <v>8</v>
-      </c>
-      <c r="F28" s="9">
-        <f>SUM(F3:F27)</f>
-        <v>10</v>
-      </c>
-      <c r="G28" s="9">
-        <f>SUM(G3:G27)</f>
-        <v>22</v>
-      </c>
-      <c r="H28" s="9">
-        <f>SUM(H3:H27)</f>
-        <v>14</v>
-      </c>
-      <c r="I28" s="9">
-        <f>SUM(I3:I27)</f>
-        <v>15</v>
-      </c>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:S1"/>

--- a/team2Scrum.xlsx
+++ b/team2Scrum.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hameenamk-my.sharepoint.com/personal/basil20001_student_hamk_fi/Documents/Tietojenkäsittely/2022/Software-development -tools(Deepak)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyDevice\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{D1D05418-55E5-4D84-A1D1-30F7030FEB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{283568D7-B8D7-40D7-AE6B-612FA8450596}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE6BF96-8629-4E62-A125-9912AE043628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="721" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="121">
   <si>
     <t>STATUS</t>
   </si>
@@ -396,6 +396,9 @@
   </si>
   <si>
     <t>Connect candidate registration form to database table</t>
+  </si>
+  <si>
+    <t>Insert admin credentials straight into admin table</t>
   </si>
 </sst>
 </file>
@@ -3845,7 +3848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62CD205-9E86-46AF-9920-145C3DB823CA}">
   <dimension ref="C1:D55"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -4169,7 +4172,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4333,10 +4336,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE6088DA-74CF-4F3C-ACDE-C67EABB84574}">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4496,7 +4499,9 @@
         <v>106</v>
       </c>
       <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="E6" s="12">
+        <v>8</v>
+      </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
@@ -4624,7 +4629,9 @@
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="F11" s="12">
+        <v>2</v>
+      </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -4833,7 +4840,7 @@
     </row>
     <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -4855,17 +4862,17 @@
       <c r="S20" s="14"/>
     </row>
     <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
@@ -4878,17 +4885,17 @@
       <c r="S21" s="14"/>
     </row>
     <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
+      <c r="A22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
@@ -4970,17 +4977,17 @@
       <c r="S25" s="14"/>
     </row>
     <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
+      <c r="A26" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
@@ -4993,17 +5000,17 @@
       <c r="S26" s="14"/>
     </row>
     <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
+      <c r="A27" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
@@ -5017,7 +5024,7 @@
     </row>
     <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -5085,32 +5092,17 @@
       <c r="S30" s="14"/>
     </row>
     <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9">
-        <f>SUM(E7:E30)</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="9">
-        <f>SUM(F6:F30)</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="9">
-        <f>SUM(G6:G30)</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="9">
-        <f>SUM(H6:H30)</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="9">
-        <f>SUM(I6:I30)</f>
-        <v>0</v>
-      </c>
+      <c r="A31" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
       <c r="J31" s="14"/>
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
@@ -5121,6 +5113,44 @@
       <c r="Q31" s="14"/>
       <c r="R31" s="14"/>
       <c r="S31" s="14"/>
+    </row>
+    <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9">
+        <f>SUM(E6:E31)</f>
+        <v>8</v>
+      </c>
+      <c r="F32" s="9">
+        <f>SUM(F6:F31)</f>
+        <v>2</v>
+      </c>
+      <c r="G32" s="9">
+        <f>SUM(G6:G31)</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="9">
+        <f>SUM(H6:H31)</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="9">
+        <f>SUM(I6:I31)</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
